--- a/src/test/resources/valid/color/multipleYellowIntervalsSchedule.xlsx
+++ b/src/test/resources/valid/color/multipleYellowIntervalsSchedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrutodea/dev/schedule-matcher/src/test/resources/valid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrutodea/dev/schedule-matcher/src/test/resources/valid/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37BF556-ED9F-6E48-A9EE-E963E38A84D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD642180-FA47-3C46-B2FE-7A111B71CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="4060" windowWidth="27640" windowHeight="16940" xr2:uid="{908E9387-ABF5-9B43-AAD6-F9C58C7F893A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Monday</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>9:00 -10:00</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DE7AB4-C00E-AF44-A2EC-23C788DC93FF}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +516,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -525,7 +528,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -537,7 +540,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -549,7 +552,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -561,7 +564,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -573,7 +576,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -585,7 +588,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -597,27 +600,39 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/valid/color/multipleYellowIntervalsSchedule.xlsx
+++ b/src/test/resources/valid/color/multipleYellowIntervalsSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrutodea/dev/schedule-matcher/src/test/resources/valid/color/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\IdeaProjects\SOJ-Team-Project\src\test\resources\valid\color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD642180-FA47-3C46-B2FE-7A111B71CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE481057-48C2-487F-97BF-0FCD431FBC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="4060" windowWidth="27640" windowHeight="16940" xr2:uid="{908E9387-ABF5-9B43-AAD6-F9C58C7F893A}"/>
+    <workbookView xWindow="7965" yWindow="4365" windowWidth="21600" windowHeight="11325" xr2:uid="{908E9387-ABF5-9B43-AAD6-F9C58C7F893A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -88,7 +86,7 @@
     <t>16:00 - 17:00</t>
   </si>
   <si>
-    <t>9:00 -10:00</t>
+    <t>9:00 - 10:00</t>
   </si>
 </sst>
 </file>
@@ -474,12 +472,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -514,7 +512,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -526,7 +524,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -538,7 +536,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -550,7 +548,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -562,7 +560,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -574,7 +572,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -586,7 +584,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -598,7 +596,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -610,7 +608,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -622,7 +620,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
